--- a/Task Assignments - Requirements_project18.xlsx
+++ b/Task Assignments - Requirements_project18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axjh03/Library/CloudStorage/OneDrive-UTArlington/semester/Spring24/CSE3310/Project_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC903A80-BD93-EF41-A69B-17C82EB33923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FFB750-FD38-B94F-B2B7-D2704DFBE5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t xml:space="preserve">Task </t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>22th Mar, 2024</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Code </t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -633,6 +639,34 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -640,6 +674,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A235BE1EAAD5A4D9F9361C4F7AC46E5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a68a453477cb4b67aa3ce0833899d920">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="018096ce9596d278040956bfcb726bd1">
     <xsd:element name="properties">
@@ -753,12 +793,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -769,6 +803,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD420F8B-B1B6-486E-A717-D576220FE945}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3827D68F-A9FF-4357-89AF-880218BD1F37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -784,21 +833,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD420F8B-B1B6-486E-A717-D576220FE945}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F630184-3D06-41C1-859F-60E5E58E6D4E}">
   <ds:schemaRefs>
